--- a/biology/Botanique/Magnolia_officinalis/Magnolia_officinalis.xlsx
+++ b/biology/Botanique/Magnolia_officinalis/Magnolia_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia officinalis est une espèce d'arbres de la famille des Magnoliacées présente en Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre à feuilles caduques pouvant atteindre 20 m de hauteur. Feuilles ovales de 20 à 40 cm de long et de 11 à 20 cm de large.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vallées et montagnes chinoises de 300 à 1500 m d'altitude.
 </t>
@@ -573,19 +589,21 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia officinalis Rehder &amp; E.H.Wilson (1913)
 variété Magnolia officinalis var. biloba Rehder &amp; E.H.Wilson (1913)
 variété Magnolia officinalis var. officinalis
-Selon NCBI  (31 décembre 2013)[3] :
+Selon NCBI  (31 décembre 2013) :
 sous-espèce Magnolia officinalis subsp. biloba
 variété Magnolia officinalis var. officinalis
-Selon The Plant List            (31 décembre 2013)[1] :
+Selon The Plant List            (31 décembre 2013) :
 variété Magnolia officinalis var. biloba Rehder &amp; E.H.Wilson
 variété Magnolia officinalis var. officinalis
-Selon Tropicos                                           (31 décembre 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnolia officinalis subsp. biloba (Rehder &amp; E.H. Wilson) Cheng &amp; Law in W. C. Cheng
 sous-espèce Magnolia officinalis subsp. officinalis
 variété Magnolia officinalis var. biloba Rehder &amp; E.H. Wilson
@@ -619,7 +637,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce fortement aromatique, prélevée sur les tiges, branches et racines est utilisée dans la médecine chinoise traditionnelle où on le nomme "Hou Po" (厚朴 (zh)). Les indications sont les refroidissements, les inflammations de la gorge et le ballonnement abdominal.
 Des molécules telles que l'honokiol et le magnolol présentes dans l'écorce ont potentiellement des effets anti-inflammatoires, antioxydants, anxiolytiques, neuroprotecteurs, anticancéreux et antidépresseurs.
